--- a/data/its_projektion_7tage.xlsx
+++ b/data/its_projektion_7tage.xlsx
@@ -437,19 +437,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.209</v>
+        <v>0.207</v>
       </c>
       <c r="C2" t="n">
-        <v>3376</v>
+        <v>3361</v>
       </c>
       <c r="D2" t="n">
-        <v>4081</v>
+        <v>4058</v>
       </c>
       <c r="E2" t="n">
-        <v>5750</v>
+        <v>4118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.71</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>0.178</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>49</v>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>0.438</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="5">
@@ -500,16 +500,16 @@
         <v>0.023</v>
       </c>
       <c r="C5" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="n">
-        <v>386</v>
+        <v>251</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.875</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="7">
@@ -537,19 +537,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167</v>
+        <v>0.162</v>
       </c>
       <c r="C7" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E7" t="n">
-        <v>1056</v>
+        <v>697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.569</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="8">
@@ -557,19 +557,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.137</v>
+        <v>0.128</v>
       </c>
       <c r="C8" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.686</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>104</v>
       </c>
       <c r="E9" t="n">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.392</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="10">
@@ -597,19 +597,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.193</v>
+        <v>0.187</v>
       </c>
       <c r="C10" t="n">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D10" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E10" t="n">
-        <v>664</v>
+        <v>510</v>
       </c>
       <c r="F10" t="n">
-        <v>0.803</v>
+        <v>1.033</v>
       </c>
     </row>
     <row r="11">
@@ -617,19 +617,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.282</v>
+        <v>0.285</v>
       </c>
       <c r="C11" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D11" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E11" t="n">
-        <v>1116</v>
+        <v>931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.968</v>
+        <v>1.162</v>
       </c>
     </row>
     <row r="12">
@@ -637,19 +637,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.322</v>
+        <v>0.318</v>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F12" t="n">
-        <v>0.523</v>
+        <v>0.815</v>
       </c>
     </row>
     <row r="13">
@@ -657,19 +657,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.172</v>
+        <v>0.186</v>
       </c>
       <c r="C13" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
       </c>
       <c r="E13" t="n">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="F13" t="n">
-        <v>0.81</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="14">
@@ -677,19 +677,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275</v>
+        <v>0.273</v>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="F14" t="n">
-        <v>0.628</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>110</v>
       </c>
       <c r="E15" t="n">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F15" t="n">
-        <v>0.719</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="16">
@@ -717,19 +717,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.249</v>
+        <v>0.245</v>
       </c>
       <c r="C16" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D16" t="n">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E16" t="n">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="F16" t="n">
-        <v>0.906</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="17">
@@ -737,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="C17" t="n">
         <v>88</v>
@@ -746,10 +746,10 @@
         <v>109</v>
       </c>
       <c r="E17" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.703</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="18">
@@ -757,19 +757,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="n">
         <v>193</v>
       </c>
       <c r="D18" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E18" t="n">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="F18" t="n">
-        <v>0.996</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
